--- a/Data/Sample4_y17_history.xlsx
+++ b/Data/Sample4_y17_history.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junheekang/Downloads/예제 파일/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F901D9-905B-514D-B4EB-5CB4AFD065D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="375" windowWidth="18075" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="y17_history" sheetId="5" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -41,10 +47,6 @@
   </si>
   <si>
     <t>경기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제주</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -79,11 +81,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,7 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -159,7 +161,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -190,6 +192,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -238,7 +243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,9 +276,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,6 +328,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,23 +520,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="9" customWidth="1"/>
     <col min="4" max="4" width="9" style="6"/>
-    <col min="5" max="5" width="12.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="11" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -505,19 +546,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -537,7 +578,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -557,163 +598,123 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C4" s="8">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" s="3">
-        <v>275000</v>
+        <v>400000</v>
       </c>
       <c r="F4" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="C5" s="8">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="3">
-        <v>400000</v>
+        <v>845000</v>
       </c>
       <c r="F5" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>56</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3">
+        <v>150000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4">
         <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8">
-        <v>27</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3">
-        <v>845000</v>
-      </c>
-      <c r="F6" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="8">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="3">
-        <v>42900</v>
+        <v>570000</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="4">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8">
-        <v>56</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E8" s="3">
-        <v>150000</v>
+        <v>930000</v>
       </c>
       <c r="F8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="8">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E9" s="3">
-        <v>570000</v>
+        <v>520000</v>
       </c>
       <c r="F9" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="8">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3">
-        <v>930000</v>
-      </c>
-      <c r="F10" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="8">
-        <v>38</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3">
-        <v>520000</v>
-      </c>
-      <c r="F11" s="2">
         <v>17</v>
       </c>
     </row>
